--- a/Sagacity_0.1.xlsx
+++ b/Sagacity_0.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Documents\GitHub\sagacity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7534FE-ECC7-438E-982A-66512591B383}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E0FC9A-0E1E-4B87-A2F3-85B6EEB2A64C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{D0780601-15C0-441A-91EF-C09DCE388F2C}"/>
   </bookViews>
@@ -39,9 +39,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="578">
   <si>
-    <t>Probability of dying or severe illness from Covid-19</t>
-  </si>
-  <si>
     <t>Probability of severe illness / hospitalization from Covid-19</t>
   </si>
   <si>
@@ -1818,9 +1815,6 @@
   </si>
   <si>
     <t>See the GNU General Public License for more details (https://www.gnu.org/licenses/).</t>
-  </si>
-  <si>
-    <t>Vac-Sagacious™ is a free spreadsheet file; you can redistribute it and/or modify it under the terms of the</t>
   </si>
   <si>
     <t>or (at your option) any later version.  Vac-Sagagious is a non-federally-registered trademark.  If you modify</t>
@@ -2071,6 +2065,12 @@
       </rPr>
       <t>Change Log</t>
     </r>
+  </si>
+  <si>
+    <t>Sagacity™ is a free spreadsheet file; you can redistribute it and/or modify it under the terms of the</t>
+  </si>
+  <si>
+    <t>Probability of dying from Covid-19</t>
   </si>
 </sst>
 </file>
@@ -4095,22 +4095,22 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
     <row r="1" spans="1:13" ht="23.5" x14ac:dyDescent="1.1000000000000001">
       <c r="A1" s="45" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A3" s="44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -4129,7 +4129,7 @@
         <v>2E-3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>0</v>
+        <v>577</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
@@ -4148,7 +4148,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="20"/>
@@ -4167,7 +4167,7 @@
         <v>0.02</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
@@ -4186,7 +4186,7 @@
         <v>0.1</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
@@ -4205,7 +4205,7 @@
         <v>0.02</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
@@ -4225,7 +4225,7 @@
         <v>2.0000000000000004E-2</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
@@ -4244,7 +4244,7 @@
         <v>0.2</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
@@ -4260,10 +4260,10 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A12" s="44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -4282,7 +4282,7 @@
         <v>1000</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C13" s="38"/>
       <c r="D13" s="38"/>
@@ -4301,7 +4301,7 @@
         <v>75</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C14" s="38"/>
       <c r="D14" s="38"/>
@@ -4320,7 +4320,7 @@
         <v>333</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C15" s="38"/>
       <c r="D15" s="38"/>
@@ -4339,7 +4339,7 @@
         <v>25</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C16" s="38"/>
       <c r="D16" s="38"/>
@@ -4361,57 +4361,57 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A20" s="47" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A21" s="47" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A22" s="47" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A23" s="47" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A24" s="47" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A25" s="48" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A26" s="48" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A27" s="48" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A28" s="48" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A29" s="48" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A30" s="48" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.75">
@@ -4419,17 +4419,17 @@
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A32" s="48" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A33" s="48" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A34" s="49" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
   </sheetData>
@@ -4450,8 +4450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7D3ECE-B45F-4CB4-A7B2-CD0816DC0E04}">
   <dimension ref="A1:M86"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -4468,16 +4468,16 @@
   <sheetData>
     <row r="1" spans="1:13" ht="23.5" x14ac:dyDescent="1.1000000000000001">
       <c r="A1" s="45" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.75">
@@ -4493,13 +4493,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A3" s="50" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B3" s="51"/>
       <c r="C3" s="51"/>
       <c r="D3" s="52"/>
       <c r="G3" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K3" s="15"/>
       <c r="L3" s="19">
@@ -4507,12 +4507,12 @@
         <v>4.1000000000000009E-2</v>
       </c>
       <c r="M3" s="41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A4" s="53" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B4" s="54"/>
       <c r="C4" s="54"/>
@@ -4529,7 +4529,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A5" s="53" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B5" s="54"/>
       <c r="C5" s="54"/>
@@ -4561,7 +4561,7 @@
       <c r="C7" s="60"/>
       <c r="D7" s="61"/>
       <c r="I7" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K7" s="15"/>
       <c r="L7" s="19">
@@ -4569,7 +4569,7 @@
         <v>3.845040000000001E-2</v>
       </c>
       <c r="M7" s="41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.75">
@@ -4593,10 +4593,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.75">
       <c r="E9" s="22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K9" s="17"/>
       <c r="L9" s="20"/>
@@ -4622,7 +4622,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.75">
       <c r="I11" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K11" s="15"/>
       <c r="L11" s="19">
@@ -4630,7 +4630,7 @@
         <v>6.5120000000000011E-2</v>
       </c>
       <c r="M11" s="41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.75">
@@ -4682,7 +4682,7 @@
       <c r="F15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="15"/>
@@ -4691,7 +4691,7 @@
         <v>0.27523040000000015</v>
       </c>
       <c r="M15" s="41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.75">
@@ -4720,13 +4720,13 @@
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H17" s="3"/>
       <c r="J17" s="3"/>
@@ -4765,7 +4765,7 @@
       <c r="F19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="15"/>
@@ -4774,7 +4774,7 @@
         <v>0.46128000000000013</v>
       </c>
       <c r="M19" s="41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.75">
@@ -4834,7 +4834,7 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="G23" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="15"/>
@@ -4843,7 +4843,7 @@
         <v>6.5267999999999997</v>
       </c>
       <c r="M23" s="41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.75">
@@ -4869,7 +4869,7 @@
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="E25" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="15"/>
@@ -4895,7 +4895,7 @@
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="G27" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="15"/>
@@ -4904,7 +4904,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.75">
@@ -4922,7 +4922,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A29" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B29" s="3"/>
       <c r="K29" s="17"/>
@@ -4944,7 +4944,7 @@
     <row r="31" spans="1:13" x14ac:dyDescent="0.75">
       <c r="B31" s="3"/>
       <c r="G31" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="15"/>
@@ -4953,7 +4953,7 @@
         <v>0.41000000000000003</v>
       </c>
       <c r="M31" s="41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.75">
@@ -5008,7 +5008,7 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="15"/>
@@ -5017,7 +5017,7 @@
         <v>0.32042000000000004</v>
       </c>
       <c r="M35" s="41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.75">
@@ -5041,11 +5041,11 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.75">
       <c r="E37" s="22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K37" s="15"/>
       <c r="L37" s="18"/>
@@ -5080,7 +5080,7 @@
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K39" s="15"/>
       <c r="L39" s="19">
@@ -5088,7 +5088,7 @@
         <v>0.66600000000000004</v>
       </c>
       <c r="M39" s="41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.75">
@@ -5124,7 +5124,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.75">
       <c r="C43" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -5132,7 +5132,7 @@
       <c r="G43" s="4"/>
       <c r="H43" s="3"/>
       <c r="I43" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K43" s="15"/>
       <c r="L43" s="19">
@@ -5140,7 +5140,7 @@
         <v>1.376152</v>
       </c>
       <c r="M43" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.75">
@@ -5164,7 +5164,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.75">
       <c r="G45" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K45" s="15"/>
       <c r="L45" s="18"/>
@@ -5195,7 +5195,7 @@
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K47" s="15"/>
       <c r="L47" s="19">
@@ -5203,7 +5203,7 @@
         <v>4.7088999999999999</v>
       </c>
       <c r="M47" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.75">
@@ -5244,7 +5244,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.75">
       <c r="E51" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K51" s="15"/>
       <c r="L51" s="19">
@@ -5252,7 +5252,7 @@
         <v>0</v>
       </c>
       <c r="M51" s="42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.75">
@@ -5287,77 +5287,77 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A57" s="47" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="K57" s="11"/>
       <c r="L57" s="10"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A58" s="47" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="K58" s="11"/>
       <c r="L58" s="10"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A59" s="47" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K59" s="11"/>
       <c r="L59" s="10"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A60" s="47" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="K60" s="11"/>
       <c r="L60" s="10"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A61" s="47" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="K61" s="11"/>
       <c r="L61" s="10"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A62" s="48" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="K62" s="11"/>
       <c r="L62" s="10"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A63" s="48" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="K63" s="11"/>
       <c r="L63" s="10"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A64" s="48" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K64" s="11"/>
       <c r="L64" s="10"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A65" s="48" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="K65" s="11"/>
       <c r="L65" s="10"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A66" s="48" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="K66" s="11"/>
       <c r="L66" s="10"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A67" s="48" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K67" s="11"/>
       <c r="L67" s="10"/>
@@ -5369,21 +5369,21 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A69" s="48" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="K69" s="11"/>
       <c r="L69" s="10"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A70" s="48" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="K70" s="11"/>
       <c r="L70" s="10"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A71" s="49" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="K71" s="11"/>
       <c r="L71" s="10"/>
@@ -5488,18 +5488,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A1" s="26" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" s="28" t="s">
+        <v>547</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>548</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="C2" s="30" t="s">
         <v>549</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.75">
@@ -5507,10 +5507,10 @@
         <v>44304</v>
       </c>
       <c r="B3" s="32" t="s">
+        <v>550</v>
+      </c>
+      <c r="C3" s="33" t="s">
         <v>551</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>552</v>
       </c>
     </row>
   </sheetData>
@@ -5531,12 +5531,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A1" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A2" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.75">
@@ -5544,17 +5544,17 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A4" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A5" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A6" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.75">
@@ -5562,7 +5562,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A8" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.75">
@@ -5570,12 +5570,12 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A10" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A11" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.75">
@@ -5583,42 +5583,42 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A13" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A14" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A15" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A16" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A17" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A18" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A19" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A20" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.75">
@@ -5626,32 +5626,32 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A22" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A23" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A24" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A25" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A26" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A27" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.75">
@@ -5659,22 +5659,22 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A29" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A30" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A31" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A32" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.75">
@@ -5682,27 +5682,27 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A34" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A35" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A36" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A37" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A38" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.75">
@@ -5710,17 +5710,17 @@
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A40" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A41" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A42" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.75">
@@ -5728,27 +5728,27 @@
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A44" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A45" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A46" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A47" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A48" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.75">
@@ -5756,52 +5756,52 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A50" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A51" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A52" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A53" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A54" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A55" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A56" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A57" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A58" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A59" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.75">
@@ -5809,32 +5809,32 @@
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A61" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A62" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A63" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A64" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A65" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A66" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.75">
@@ -5842,12 +5842,12 @@
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A68" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A69" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.75">
@@ -5855,7 +5855,7 @@
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A71" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.75">
@@ -5863,7 +5863,7 @@
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A73" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.75">
@@ -5871,7 +5871,7 @@
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A75" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.75">
@@ -5879,12 +5879,12 @@
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A77" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A78" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.75">
@@ -5892,17 +5892,17 @@
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A80" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A81" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A82" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.75">
@@ -5910,22 +5910,22 @@
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A84" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A85" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A86" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A87" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.75">
@@ -5933,12 +5933,12 @@
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A89" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A90" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.75">
@@ -5946,32 +5946,32 @@
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A92" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A93" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A94" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A95" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A96" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A97" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.75">
@@ -5979,17 +5979,17 @@
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A99" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A100" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A101" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.75">
@@ -5997,42 +5997,42 @@
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A103" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A104" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A105" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A106" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A107" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A108" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A109" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A110" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.75">
@@ -6040,7 +6040,7 @@
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A112" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.75">
@@ -6048,17 +6048,17 @@
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A114" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A115" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A116" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.75">
@@ -6066,22 +6066,22 @@
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A118" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A119" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A120" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A121" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.75">
@@ -6089,52 +6089,52 @@
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A123" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A124" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A125" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A126" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A127" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A128" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A129" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A130" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A131" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A132" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.75">
@@ -6142,62 +6142,62 @@
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A134" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A135" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A136" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A137" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A138" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A139" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A140" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A141" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A142" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A143" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A144" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A145" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.75">
@@ -6205,17 +6205,17 @@
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A147" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A148" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A149" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.75">
@@ -6223,12 +6223,12 @@
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A151" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A152" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.75">
@@ -6236,7 +6236,7 @@
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A154" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.75">
@@ -6244,37 +6244,37 @@
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A156" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A157" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A158" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A159" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A160" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A161" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A162" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.75">
@@ -6282,52 +6282,52 @@
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A164" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A165" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A166" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A167" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A168" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A169" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A170" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A171" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A172" s="23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A173" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.75">
@@ -6335,17 +6335,17 @@
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A175" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A176" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A177" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.75">
@@ -6353,7 +6353,7 @@
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A179" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.75">
@@ -6361,27 +6361,27 @@
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A181" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A182" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A183" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A184" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A185" s="23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.75">
@@ -6389,37 +6389,37 @@
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A187" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A188" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A189" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A190" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A191" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A192" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A193" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.75">
@@ -6427,7 +6427,7 @@
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A195" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.75">
@@ -6435,37 +6435,37 @@
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A197" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A198" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A199" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A200" s="23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A201" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A202" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A203" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.75">
@@ -6473,12 +6473,12 @@
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A205" s="23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A206" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.75">
@@ -6486,7 +6486,7 @@
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A208" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.75">
@@ -6494,17 +6494,17 @@
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A210" s="23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A211" s="23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A212" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.75">
@@ -6512,12 +6512,12 @@
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A214" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A215" s="23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.75">
@@ -6525,22 +6525,22 @@
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A217" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A218" s="23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A219" s="23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A220" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.75">
@@ -6548,37 +6548,37 @@
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A222" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A223" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A224" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A225" s="23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A226" s="23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A227" s="23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A228" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.75">
@@ -6586,22 +6586,22 @@
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A230" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A231" s="23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A232" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A233" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.75">
@@ -6609,47 +6609,47 @@
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A235" s="23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A236" s="23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A237" s="23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A238" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A239" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A240" s="23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A241" s="23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A242" s="23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A243" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.75">
@@ -6657,7 +6657,7 @@
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A245" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.75">
@@ -6665,22 +6665,22 @@
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A247" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A248" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A249" s="23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A250" s="23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.75">
@@ -6688,22 +6688,22 @@
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A252" s="23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A253" s="23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A254" s="23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A255" s="23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.75">
@@ -6711,57 +6711,57 @@
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A257" s="23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A258" s="23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A259" s="23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A260" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A261" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A262" s="23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A263" s="23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A264" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A265" s="23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A266" s="23" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A267" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.75">
@@ -6769,27 +6769,27 @@
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A269" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A270" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A271" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A272" s="23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A273" s="23" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.75">
@@ -6797,62 +6797,62 @@
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A275" s="23" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A276" s="23" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A277" s="23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A278" s="23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A279" s="23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A280" s="23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A281" s="23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A282" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A283" s="23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A284" s="23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A285" s="23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A286" s="23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.75">
@@ -6860,22 +6860,22 @@
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A288" s="23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A289" s="23" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A290" s="23" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A291" s="23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.75">
@@ -6883,17 +6883,17 @@
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A293" s="23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A294" s="23" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A295" s="23" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.75">
@@ -6901,62 +6901,62 @@
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A297" s="23" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A298" s="23" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A299" s="23" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A300" s="23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A301" s="23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A302" s="23" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A303" s="23" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A304" s="23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A305" s="23" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A306" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A307" s="23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A308" s="23" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.75">
@@ -6964,37 +6964,37 @@
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A310" s="23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A311" s="23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A312" s="23" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A313" s="23" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A314" s="23" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A315" s="23" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A316" s="23" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.75">
@@ -7002,52 +7002,52 @@
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A318" s="23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A319" s="23" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A320" s="23" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A321" s="23" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A322" s="23" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A323" s="23" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A324" s="23" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A325" s="23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A326" s="23" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A327" s="23" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.75">
@@ -7055,37 +7055,37 @@
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A329" s="23" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A330" s="23" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A331" s="23" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A332" s="23" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A333" s="23" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A334" s="23" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A335" s="23" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.75">
@@ -7093,27 +7093,27 @@
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A337" s="23" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A338" s="23" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A339" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A340" s="23" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A341" s="23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.75">
@@ -7121,7 +7121,7 @@
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A343" s="23" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.75">
@@ -7129,42 +7129,42 @@
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A345" s="23" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A346" s="23" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A347" s="23" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A348" s="23" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A349" s="23" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A350" s="23" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A351" s="23" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A352" s="23" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.75">
@@ -7172,32 +7172,32 @@
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A354" s="23" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A355" s="23" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A356" s="23" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A357" s="23" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A358" s="23" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A359" s="23" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.75">
@@ -7205,17 +7205,17 @@
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A361" s="23" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A362" s="23" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A363" s="23" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.75">
@@ -7223,12 +7223,12 @@
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A365" s="23" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A366" s="23" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.75">
@@ -7236,17 +7236,17 @@
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A368" s="23" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A369" s="23" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A370" s="23" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.75">
@@ -7254,17 +7254,17 @@
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A372" s="23" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A373" s="23" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A374" s="23" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.75">
@@ -7272,12 +7272,12 @@
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A376" s="23" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A377" s="23" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.75">
@@ -7285,12 +7285,12 @@
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A379" s="23" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A380" s="23" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.75">
@@ -7298,27 +7298,27 @@
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A382" s="23" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A383" s="23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A384" s="23" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A385" s="23" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A386" s="23" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.75">
@@ -7326,47 +7326,47 @@
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A388" s="23" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A389" s="23" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A390" s="23" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A391" s="23" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A392" s="23" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A393" s="23" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A394" s="23" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A395" s="23" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A396" s="23" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.75">
@@ -7374,22 +7374,22 @@
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A398" s="23" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A399" s="23" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A400" s="23" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A401" s="23" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.75">
@@ -7397,17 +7397,17 @@
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A403" s="23" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A404" s="23" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A405" s="23" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.75">
@@ -7415,7 +7415,7 @@
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A407" s="23" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.75">
@@ -7423,27 +7423,27 @@
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A409" s="23" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A410" s="23" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A411" s="23" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A412" s="23" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A413" s="23" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.75">
@@ -7451,32 +7451,32 @@
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A415" s="23" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A416" s="23" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A417" s="23" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A418" s="23" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A419" s="23" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A420" s="23" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.75">
@@ -7484,32 +7484,32 @@
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A422" s="23" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A423" s="23" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A424" s="23" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A425" s="23" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A426" s="23" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A427" s="23" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.75">
@@ -7517,27 +7517,27 @@
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A429" s="23" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A430" s="23" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A431" s="23" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A432" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A433" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.75">
@@ -7545,7 +7545,7 @@
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A435" s="23" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.75">
@@ -7553,42 +7553,42 @@
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A437" s="23" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A438" s="23" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A439" s="23" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A440" s="23" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A441" s="23" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A442" s="23" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A443" s="23" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A444" s="23" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.75">
@@ -7596,7 +7596,7 @@
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A446" s="23" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.75">
@@ -7604,22 +7604,22 @@
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A448" s="23" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A449" s="23" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A450" s="23" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A451" s="23" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.75">
@@ -7627,47 +7627,47 @@
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A453" s="23" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A454" s="23" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A455" s="23" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A456" s="23" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A457" s="23" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A458" s="23" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A459" s="23" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A460" s="23" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A461" s="23" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.75">
@@ -7675,37 +7675,37 @@
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A463" s="23" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A464" s="23" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A465" s="23" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A466" s="23" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A467" s="23" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A468" s="23" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A469" s="23" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.75">
@@ -7713,7 +7713,7 @@
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A471" s="23" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.75">
@@ -7721,17 +7721,17 @@
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A473" s="23" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A474" s="23" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A475" s="23" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.75">
@@ -7739,47 +7739,47 @@
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A477" s="23" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A478" s="23" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A479" s="23" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A480" s="23" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A481" s="23" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A482" s="23" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A483" s="23" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A484" s="23" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A485" s="23" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.75">
@@ -7787,22 +7787,22 @@
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A487" s="23" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A488" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A489" s="23" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A490" s="23" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.75">
@@ -7810,32 +7810,32 @@
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A492" s="23" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A493" s="23" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A494" s="23" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A495" s="23" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A496" s="23" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A497" s="23" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.75">
@@ -7843,67 +7843,67 @@
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A499" s="23" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A500" s="23" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A501" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A502" s="23" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A503" s="23" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A504" s="23" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A505" s="23" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A506" s="23" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A507" s="23" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A508" s="23" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A509" s="23" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A510" s="23" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A511" s="23" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.75">
@@ -7911,37 +7911,37 @@
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A513" s="23" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A514" s="23" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A515" s="23" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A516" s="23" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A517" s="23" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A518" s="23" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A519" s="23" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.75">
@@ -7949,72 +7949,72 @@
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A521" s="23" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A522" s="23" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A523" s="23" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A524" s="23" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A525" s="23" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A526" s="23" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A527" s="23" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A528" s="23" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A529" s="23" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A530" s="23" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A531" s="23" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A532" s="23" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A533" s="23" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A534" s="23" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.75">
@@ -8022,17 +8022,17 @@
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A536" s="23" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A537" s="23" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A538" s="23" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.75">
@@ -8040,7 +8040,7 @@
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A540" s="23" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.75">
@@ -8048,47 +8048,47 @@
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A542" s="23" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A543" s="23" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A544" s="23" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A545" s="23" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A546" s="23" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A547" s="23" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A548" s="23" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A549" s="23" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A550" s="23" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.75">
@@ -8096,7 +8096,7 @@
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A552" s="23" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.75">
@@ -8104,42 +8104,42 @@
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A554" s="23" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A555" s="23" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A556" s="23" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A557" s="23" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A558" s="23" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A559" s="23" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A560" s="23" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A561" s="23" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.75">
@@ -8147,7 +8147,7 @@
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A563" s="23" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.75">
@@ -8155,22 +8155,22 @@
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A565" s="23" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A566" s="23" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A567" s="23" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A568" s="23" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.75">
@@ -8178,42 +8178,42 @@
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A570" s="23" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A571" s="23" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A572" s="23" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A573" s="23" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A574" s="23" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A575" s="23" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A576" s="23" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A577" s="23" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.75">
@@ -8221,22 +8221,22 @@
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A579" s="23" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A580" s="23" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A581" s="23" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A582" s="23" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.75">
@@ -8244,22 +8244,22 @@
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A584" s="23" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A585" s="23" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A586" s="23" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A587" s="23" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.75">
@@ -8267,7 +8267,7 @@
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A589" s="23" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.75">
@@ -8275,42 +8275,42 @@
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A591" s="23" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A592" s="23" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A593" s="23" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A594" s="23" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A595" s="23" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A596" s="23" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A597" s="23" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A598" s="23" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.75">
@@ -8318,7 +8318,7 @@
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A600" s="23" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.75">
@@ -8326,47 +8326,47 @@
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A602" s="23" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A603" s="23" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A604" s="23" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A605" s="23" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A606" s="23" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A607" s="23" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A608" s="23" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A609" s="23" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A610" s="23" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.75">
@@ -8374,7 +8374,7 @@
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A612" s="23" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.75">
@@ -8382,32 +8382,32 @@
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A614" s="23" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A615" s="23" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A616" s="23" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A617" s="23" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A618" s="23" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A619" s="23" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.75">
@@ -8415,7 +8415,7 @@
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A621" s="23" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.75">
